--- a/Publication-Release4.0.2-ballot-3/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/Publication-Release4.0.2-ballot-3/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T14:29:26+00:00</t>
+    <t>2024-04-18T08:51:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
